--- a/StructureDefinition-profile-AllergyIntolerance.xlsx
+++ b/StructureDefinition-profile-AllergyIntolerance.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1819" uniqueCount="382">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.6173969-06:00</t>
+    <t>2026-02-09T22:05:42.9798533-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -423,33 +423,60 @@
     <t>AllergyIntolerance.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.extension:participant</t>
+  </si>
+  <si>
+    <t>participant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AllergyIntolerance.participant|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for AllergyIntolerance.participant from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates who or what participated in the activities related to the allergy or intolerance and how they were involved.</t>
+  </si>
+  <si>
+    <t>Element `AllergyIntolerance.participant` is will have a context of AllergyIntolerance based on following the parent source element upwards and mapping to `AllergyIntolerance`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -457,6 +484,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -567,23 +597,16 @@
     <t>AllergyIntolerance.verificationStatus.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.verificationStatus.extension:verificationStatus</t>
+  </si>
+  <si>
+    <t>verificationStatus</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AllergyIntolerance.verificationStatus|0.0.1-snapshot-3}
@@ -596,6 +619,10 @@
     <t>Assertion about certainty associated with the propensity, or potential risk, of a reaction to the identified substance (including pharmaceutical product).  The verification status pertains to the allergy or intolerance, itself, not to any specific AllergyIntolerance attribute.</t>
   </si>
   <si>
+    <t>Note that the target element context `AllergyIntolerance.verificationStatus` is a modifier element, so this extension does not need to be defined as a modifier.
+Element `AllergyIntolerance.verificationStatus` is mapped to FHIR R4 element `AllergyIntolerance.verificationStatus`.</t>
+  </si>
+  <si>
     <t>AllergyIntolerance.verificationStatus.coding</t>
   </si>
   <si>
@@ -691,6 +718,12 @@
     <t>AllergyIntolerance.type.extension</t>
   </si>
   <si>
+    <t>AllergyIntolerance.type.extension:type</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AllergyIntolerance.type|0.0.1-snapshot-3}
 </t>
   </si>
@@ -698,8 +731,7 @@
     <t>Cross-version extension for AllergyIntolerance.type from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
+    <t>Element `AllergyIntolerance.type` is mapped to FHIR R4 element `AllergyIntolerance.type`.</t>
   </si>
   <si>
     <t>AllergyIntolerance.type.value</t>
@@ -1012,6 +1044,9 @@
     <t>AllergyIntolerance.reaction.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
@@ -1084,11 +1119,20 @@
     <t>AllergyIntolerance.reaction.manifestation.extension</t>
   </si>
   <si>
+    <t>AllergyIntolerance.reaction.manifestation.extension:manifestation</t>
+  </si>
+  <si>
+    <t>manifestation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AllergyIntolerance.reaction.manifestation|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
     <t>Cross-version extension for AllergyIntolerance.reaction.manifestation from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `AllergyIntolerance.reaction.manifestation` is mapped to FHIR R4 element `AllergyIntolerance.reaction.manifestation`.</t>
   </si>
   <si>
     <t>AllergyIntolerance.reaction.manifestation.coding</t>
@@ -1483,7 +1527,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM50"/>
+  <dimension ref="A1:AM51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1492,9 +1536,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.73828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.4296875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="42.73828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="14.94921875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -2435,7 +2479,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2454,17 +2498,15 @@
         <v>79</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>136</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>79</v>
@@ -2501,16 +2543,14 @@
         <v>79</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>137</v>
@@ -2528,7 +2568,7 @@
         <v>138</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>79</v>
@@ -2542,11 +2582,13 @@
         <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2559,26 +2601,24 @@
         <v>79</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>79</v>
       </c>
@@ -2626,7 +2666,7 @@
         <v>79</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -2635,13 +2675,13 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>79</v>
@@ -2652,14 +2692,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2672,25 +2712,25 @@
         <v>79</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>79</v>
@@ -2739,7 +2779,7 @@
         <v>79</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -2751,16 +2791,16 @@
         <v>79</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>152</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
@@ -2779,13 +2819,13 @@
         <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>88</v>
@@ -2802,7 +2842,9 @@
       <c r="N12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="O12" s="2"/>
+      <c r="O12" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="P12" t="s" s="2">
         <v>79</v>
       </c>
@@ -2826,13 +2868,13 @@
         <v>79</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>159</v>
+        <v>79</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>79</v>
@@ -2856,30 +2898,30 @@
         <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2902,7 +2944,7 @@
         <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="L13" t="s" s="2">
         <v>164</v>
@@ -2937,10 +2979,10 @@
         <v>79</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>168</v>
@@ -2961,7 +3003,7 @@
         <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -2970,16 +3012,16 @@
         <v>87</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>79</v>
@@ -2987,10 +3029,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3007,21 +3049,23 @@
         <v>79</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>79</v>
@@ -3046,13 +3090,13 @@
         <v>79</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>79</v>
@@ -3070,7 +3114,7 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3079,16 +3123,16 @@
         <v>87</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>79</v>
@@ -3096,10 +3140,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3107,11 +3151,11 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G15" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="H15" t="s" s="2">
         <v>79</v>
       </c>
@@ -3122,13 +3166,13 @@
         <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>133</v>
+        <v>180</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3167,34 +3211,34 @@
         <v>79</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>179</v>
+        <v>79</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>79</v>
@@ -3205,10 +3249,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3219,7 +3263,7 @@
         <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>79</v>
@@ -3231,17 +3275,15 @@
         <v>79</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>183</v>
+        <v>132</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>184</v>
+        <v>133</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>79</v>
@@ -3278,19 +3320,19 @@
         <v>79</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3316,12 +3358,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="D17" t="s" s="2">
         <v>79</v>
       </c>
@@ -3330,7 +3374,7 @@
         <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>79</v>
@@ -3339,23 +3383,21 @@
         <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>79</v>
       </c>
@@ -3403,7 +3445,7 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3415,24 +3457,24 @@
         <v>79</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3443,7 +3485,7 @@
         <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>79</v>
@@ -3455,7 +3497,7 @@
         <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>196</v>
@@ -3522,7 +3564,7 @@
         <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>79</v>
@@ -3549,7 +3591,7 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>204</v>
+        <v>79</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3568,18 +3610,20 @@
         <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>107</v>
+        <v>180</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>79</v>
       </c>
@@ -3603,31 +3647,31 @@
         <v>79</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="Y19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3642,25 +3686,25 @@
         <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>212</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>79</v>
+        <v>212</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3676,18 +3720,20 @@
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>171</v>
+        <v>107</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>79</v>
@@ -3712,13 +3758,13 @@
         <v>79</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>79</v>
+        <v>216</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>79</v>
+        <v>217</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>79</v>
@@ -3736,7 +3782,7 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3748,24 +3794,24 @@
         <v>79</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3773,11 +3819,11 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G21" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="H21" t="s" s="2">
         <v>79</v>
       </c>
@@ -3788,13 +3834,13 @@
         <v>79</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>133</v>
+        <v>180</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>177</v>
+        <v>222</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3833,29 +3879,31 @@
         <v>79</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AC21" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>79</v>
@@ -3869,10 +3917,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3883,7 +3931,7 @@
         <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>79</v>
@@ -3895,17 +3943,15 @@
         <v>79</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>217</v>
+        <v>132</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>218</v>
+        <v>133</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>79</v>
@@ -3942,19 +3988,17 @@
         <v>79</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC22" s="2"/>
       <c r="AD22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -3963,7 +4007,7 @@
         <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>138</v>
@@ -3980,12 +4024,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="D23" t="s" s="2">
         <v>79</v>
       </c>
@@ -4006,15 +4052,17 @@
         <v>79</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>171</v>
+        <v>227</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>79</v>
@@ -4063,19 +4111,19 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>79</v>
@@ -4089,21 +4137,21 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>224</v>
+        <v>79</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>79</v>
@@ -4112,20 +4160,18 @@
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>107</v>
+        <v>180</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>79</v>
@@ -4150,13 +4196,13 @@
         <v>79</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>229</v>
+        <v>79</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>79</v>
@@ -4174,47 +4220,47 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>230</v>
+        <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>231</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>79</v>
@@ -4229,13 +4275,13 @@
         <v>107</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4261,13 +4307,13 @@
         <v>79</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>79</v>
@@ -4285,13 +4331,13 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>79</v>
@@ -4300,10 +4346,10 @@
         <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>241</v>
@@ -4337,7 +4383,7 @@
         <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>244</v>
@@ -4372,13 +4418,13 @@
         <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="Y26" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="Y26" t="s" s="2">
+      <c r="Z26" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>79</v>
@@ -4411,29 +4457,29 @@
         <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>252</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>87</v>
@@ -4448,15 +4494,17 @@
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="M27" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>79</v>
@@ -4481,13 +4529,13 @@
         <v>79</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>79</v>
+        <v>259</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>79</v>
@@ -4505,10 +4553,10 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>87</v>
@@ -4520,29 +4568,29 @@
         <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>87</v>
@@ -4554,16 +4602,16 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4614,10 +4662,10 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>87</v>
@@ -4629,21 +4677,21 @@
         <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>79</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4666,13 +4714,13 @@
         <v>79</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4723,7 +4771,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4738,10 +4786,10 @@
         <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -4749,10 +4797,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4775,13 +4823,13 @@
         <v>79</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4832,7 +4880,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4847,25 +4895,25 @@
         <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>279</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>281</v>
+        <v>79</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -4884,13 +4932,13 @@
         <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4941,7 +4989,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -4956,25 +5004,25 @@
         <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>79</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -4990,20 +5038,18 @@
         <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>79</v>
@@ -5052,7 +5098,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5067,25 +5113,25 @@
         <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>295</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>79</v>
+        <v>298</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5101,19 +5147,19 @@
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5163,7 +5209,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5178,21 +5224,21 @@
         <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>79</v>
+        <v>304</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>79</v>
+        <v>305</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5203,7 +5249,7 @@
         <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>79</v>
@@ -5215,16 +5261,16 @@
         <v>79</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5274,13 +5320,13 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>79</v>
@@ -5289,7 +5335,7 @@
         <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>79</v>
@@ -5300,10 +5346,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5326,15 +5372,17 @@
         <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>79</v>
@@ -5383,7 +5431,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5398,7 +5446,7 @@
         <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>79</v>
@@ -5409,10 +5457,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5423,7 +5471,7 @@
         <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
@@ -5435,13 +5483,13 @@
         <v>79</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>171</v>
+        <v>318</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>172</v>
+        <v>319</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>173</v>
+        <v>320</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5492,22 +5540,22 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>174</v>
+        <v>317</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>175</v>
+        <v>321</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>79</v>
@@ -5518,21 +5566,21 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -5544,17 +5592,15 @@
         <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>133</v>
+        <v>180</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>134</v>
+        <v>181</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>79</v>
@@ -5603,22 +5649,22 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>79</v>
@@ -5629,14 +5675,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>316</v>
+        <v>147</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -5649,26 +5695,24 @@
         <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>79</v>
       </c>
@@ -5716,7 +5760,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>319</v>
+        <v>187</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -5731,7 +5775,7 @@
         <v>138</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>130</v>
+        <v>184</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>79</v>
@@ -5742,44 +5786,46 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>79</v>
+        <v>327</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>79</v>
       </c>
@@ -5803,13 +5849,13 @@
         <v>79</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>324</v>
+        <v>79</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>325</v>
+        <v>79</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>79</v>
@@ -5827,22 +5873,22 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>326</v>
+        <v>130</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>79</v>
@@ -5853,22 +5899,22 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>328</v>
+        <v>79</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G40" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
       </c>
@@ -5879,16 +5925,16 @@
         <v>79</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -5914,13 +5960,13 @@
         <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>79</v>
@@ -5938,13 +5984,13 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="AG40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH40" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>79</v>
@@ -5953,32 +5999,32 @@
         <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>210</v>
+        <v>337</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>334</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>79</v>
+        <v>339</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
@@ -5990,15 +6036,17 @@
         <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>172</v>
+        <v>340</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>79</v>
@@ -6023,13 +6071,13 @@
         <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>79</v>
+        <v>343</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>79</v>
+        <v>344</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>79</v>
@@ -6047,36 +6095,36 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>174</v>
+        <v>338</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>175</v>
+        <v>218</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>79</v>
+        <v>345</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6084,11 +6132,11 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G42" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G42" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="H42" t="s" s="2">
         <v>79</v>
       </c>
@@ -6099,13 +6147,13 @@
         <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>133</v>
+        <v>180</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6144,34 +6192,34 @@
         <v>79</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>179</v>
+        <v>79</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>79</v>
@@ -6182,10 +6230,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6208,17 +6256,15 @@
         <v>79</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>337</v>
+        <v>132</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>338</v>
+        <v>133</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>79</v>
@@ -6255,19 +6301,19 @@
         <v>79</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6293,18 +6339,20 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="C44" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="D44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>78</v>
@@ -6316,23 +6364,21 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>187</v>
+        <v>350</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>188</v>
+        <v>351</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>189</v>
+        <v>341</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>79</v>
       </c>
@@ -6380,7 +6426,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6392,24 +6438,24 @@
         <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6420,7 +6466,7 @@
         <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
@@ -6432,7 +6478,7 @@
         <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="L45" t="s" s="2">
         <v>196</v>
@@ -6499,7 +6545,7 @@
         <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>79</v>
@@ -6519,14 +6565,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>342</v>
+        <v>79</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6542,21 +6588,23 @@
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>343</v>
+        <v>204</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>344</v>
+        <v>205</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>79</v>
       </c>
@@ -6604,7 +6652,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>341</v>
+        <v>208</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6619,25 +6667,25 @@
         <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>346</v>
+        <v>209</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>79</v>
+        <v>210</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>79</v>
+        <v>356</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6656,15 +6704,17 @@
         <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>274</v>
+        <v>180</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>79</v>
@@ -6713,7 +6763,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -6728,21 +6778,21 @@
         <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>271</v>
+        <v>360</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>350</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6765,17 +6815,15 @@
         <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>107</v>
+        <v>284</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>79</v>
@@ -6800,13 +6848,13 @@
         <v>79</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>355</v>
+        <v>79</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>356</v>
+        <v>79</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>79</v>
@@ -6824,7 +6872,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -6839,21 +6887,21 @@
         <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>239</v>
+        <v>281</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>79</v>
+        <v>364</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6876,16 +6924,16 @@
         <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -6911,13 +6959,13 @@
         <v>79</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>247</v>
+        <v>167</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>79</v>
@@ -6935,7 +6983,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -6950,7 +6998,7 @@
         <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>363</v>
+        <v>249</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>79</v>
@@ -6961,10 +7009,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6975,7 +7023,7 @@
         <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>79</v>
@@ -6987,16 +7035,16 @@
         <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>302</v>
+        <v>163</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7022,13 +7070,13 @@
         <v>79</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>79</v>
+        <v>375</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>79</v>
+        <v>376</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>79</v>
@@ -7046,13 +7094,13 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>79</v>
@@ -7061,12 +7109,123 @@
         <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>306</v>
+        <v>377</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM50" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>79</v>
       </c>
     </row>

--- a/StructureDefinition-profile-AllergyIntolerance.xlsx
+++ b/StructureDefinition-profile-AllergyIntolerance.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1819" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="376">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:42.9798533-06:00</t>
+    <t>2026-02-17T14:42:26.7256575-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -463,7 +463,7 @@
     <t>Indicates who or what participated in the activities related to the allergy or intolerance and how they were involved.</t>
   </si>
   <si>
-    <t>Element `AllergyIntolerance.participant` is will have a context of AllergyIntolerance based on following the parent source element upwards and mapping to `AllergyIntolerance`.</t>
+    <t>Element `AllergyIntolerance.participant` has a context of AllergyIntolerance based on following the parent source element upwards and mapping to `AllergyIntolerance`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -620,7 +620,7 @@
   </si>
   <si>
     <t>Note that the target element context `AllergyIntolerance.verificationStatus` is a modifier element, so this extension does not need to be defined as a modifier.
-Element `AllergyIntolerance.verificationStatus` is mapped to FHIR R4 element `AllergyIntolerance.verificationStatus`.</t>
+Element `AllergyIntolerance.verificationStatus` has is mapped to FHIR R4 element `AllergyIntolerance.verificationStatus`, but has no comparisons.</t>
   </si>
   <si>
     <t>AllergyIntolerance.verificationStatus.coding</t>
@@ -731,7 +731,7 @@
     <t>Cross-version extension for AllergyIntolerance.type from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `AllergyIntolerance.type` is mapped to FHIR R4 element `AllergyIntolerance.type`.</t>
+    <t>Element `AllergyIntolerance.type` has is mapped to FHIR R4 element `AllergyIntolerance.type`, but has no comparisons.</t>
   </si>
   <si>
     <t>AllergyIntolerance.type.value</t>
@@ -1044,10 +1044,20 @@
     <t>AllergyIntolerance.reaction.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>AllergyIntolerance.reaction.extension:reaction</t>
+  </si>
+  <si>
+    <t>reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AllergyIntolerance.reaction|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for AllergyIntolerance.reaction from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `AllergyIntolerance.reaction` has is mapped to FHIR R4 element `AllergyIntolerance.reaction`, but has no comparisons.</t>
   </si>
   <si>
     <t>AllergyIntolerance.reaction.modifierExtension</t>
@@ -1111,34 +1121,6 @@
   </si>
   <si>
     <t>AL1-5</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction.manifestation.id</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction.manifestation.extension</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction.manifestation.extension:manifestation</t>
-  </si>
-  <si>
-    <t>manifestation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AllergyIntolerance.reaction.manifestation|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for AllergyIntolerance.reaction.manifestation from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `AllergyIntolerance.reaction.manifestation` is mapped to FHIR R4 element `AllergyIntolerance.reaction.manifestation`.</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction.manifestation.coding</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction.manifestation.text</t>
   </si>
   <si>
     <t>AllergyIntolerance.reaction.description</t>
@@ -1527,7 +1509,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM51"/>
+  <dimension ref="A1:AM47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1536,8 +1518,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="54.4296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="42.73828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="53.00390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.45703125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.94921875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
@@ -1546,7 +1528,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="101.58203125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="97.30078125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -5682,7 +5664,7 @@
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -5704,14 +5686,12 @@
         <v>132</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>324</v>
+        <v>133</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>79</v>
@@ -5748,16 +5728,14 @@
         <v>79</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC38" s="2"/>
       <c r="AD38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>187</v>
@@ -5775,7 +5753,7 @@
         <v>138</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>79</v>
@@ -5786,14 +5764,16 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="D39" t="s" s="2">
-        <v>327</v>
+        <v>79</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -5806,26 +5786,24 @@
         <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>132</v>
+        <v>326</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="N39" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="M39" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>151</v>
-      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>79</v>
       </c>
@@ -5873,7 +5851,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>330</v>
+        <v>187</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -5882,13 +5860,13 @@
         <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>79</v>
@@ -5899,44 +5877,46 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>79</v>
+        <v>330</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="M40" t="s" s="2">
-        <v>333</v>
-      </c>
       <c r="N40" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>79</v>
       </c>
@@ -5960,13 +5940,13 @@
         <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>257</v>
+        <v>79</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>335</v>
+        <v>79</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>336</v>
+        <v>79</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>79</v>
@@ -5984,22 +5964,22 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>337</v>
+        <v>130</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>79</v>
@@ -6010,21 +5990,21 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>339</v>
+        <v>79</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G41" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
@@ -6039,13 +6019,13 @@
         <v>163</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6074,10 +6054,10 @@
         <v>257</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>79</v>
@@ -6095,13 +6075,13 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AG41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH41" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>79</v>
@@ -6110,32 +6090,32 @@
         <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>218</v>
+        <v>340</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>345</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>79</v>
+        <v>342</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>79</v>
@@ -6147,15 +6127,17 @@
         <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>181</v>
+        <v>343</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>79</v>
@@ -6180,13 +6162,13 @@
         <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>79</v>
+        <v>346</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>79</v>
+        <v>347</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>79</v>
@@ -6204,48 +6186,48 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>183</v>
+        <v>341</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>79</v>
+        <v>348</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>79</v>
+        <v>350</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G43" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G43" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
       </c>
@@ -6256,15 +6238,17 @@
         <v>79</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>133</v>
+        <v>351</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>79</v>
@@ -6301,34 +6285,34 @@
         <v>79</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>187</v>
+        <v>349</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>79</v>
@@ -6339,24 +6323,22 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="C44" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G44" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G44" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
       </c>
@@ -6367,17 +6349,15 @@
         <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>350</v>
+        <v>284</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>79</v>
@@ -6426,36 +6406,36 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>187</v>
+        <v>355</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>79</v>
+        <v>281</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>79</v>
+        <v>358</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6466,7 +6446,7 @@
         <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
@@ -6475,23 +6455,21 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>195</v>
+        <v>107</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>196</v>
+        <v>360</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>197</v>
+        <v>361</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>79</v>
       </c>
@@ -6515,13 +6493,13 @@
         <v>79</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>79</v>
+        <v>363</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>79</v>
+        <v>364</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>79</v>
@@ -6539,13 +6517,13 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>200</v>
+        <v>359</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>79</v>
@@ -6554,21 +6532,21 @@
         <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>201</v>
+        <v>249</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>202</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6588,23 +6566,21 @@
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>204</v>
+        <v>366</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>205</v>
+        <v>367</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>79</v>
       </c>
@@ -6628,13 +6604,13 @@
         <v>79</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>79</v>
+        <v>369</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>79</v>
+        <v>370</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>79</v>
@@ -6652,7 +6628,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>208</v>
+        <v>365</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6667,32 +6643,32 @@
         <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>209</v>
+        <v>371</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>356</v>
+        <v>79</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
@@ -6704,16 +6680,16 @@
         <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>180</v>
+        <v>312</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6763,13 +6739,13 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>79</v>
@@ -6778,454 +6754,12 @@
         <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>360</v>
+        <v>316</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q48" s="2"/>
-      <c r="R48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="O49" s="2"/>
-      <c r="P49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q49" s="2"/>
-      <c r="R49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="O50" s="2"/>
-      <c r="P50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q50" s="2"/>
-      <c r="R50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="O51" s="2"/>
-      <c r="P51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q51" s="2"/>
-      <c r="R51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM51" t="s" s="2">
         <v>79</v>
       </c>
     </row>

--- a/StructureDefinition-profile-AllergyIntolerance.xlsx
+++ b/StructureDefinition-profile-AllergyIntolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.7256575-06:00</t>
+    <t>2026-02-20T11:59:20.7257457-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/AllergyIntolerance|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/AllergyIntolerance</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -453,7 +453,7 @@
     <t>participant</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AllergyIntolerance.participant|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AllergyIntolerance.participant}
 </t>
   </si>
   <si>
@@ -609,7 +609,7 @@
     <t>verificationStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AllergyIntolerance.verificationStatus|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AllergyIntolerance.verificationStatus}
 </t>
   </si>
   <si>
@@ -724,7 +724,7 @@
     <t>type</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AllergyIntolerance.type|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AllergyIntolerance.type}
 </t>
   </si>
   <si>
@@ -1050,7 +1050,7 @@
     <t>reaction</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AllergyIntolerance.reaction|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AllergyIntolerance.reaction}
 </t>
   </si>
   <si>
@@ -1528,7 +1528,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="97.30078125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="82.890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-profile-AllergyIntolerance.xlsx
+++ b/StructureDefinition-profile-AllergyIntolerance.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1819" uniqueCount="382">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.7257457-06:00</t>
+    <t>2026-02-21T13:36:54.1247792-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/AllergyIntolerance</t>
+    <t>http://hl7.org/fhir/StructureDefinition/AllergyIntolerance|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -453,7 +453,7 @@
     <t>participant</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AllergyIntolerance.participant}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AllergyIntolerance.participant|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -609,7 +609,7 @@
     <t>verificationStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AllergyIntolerance.verificationStatus}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AllergyIntolerance.verificationStatus|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -620,7 +620,7 @@
   </si>
   <si>
     <t>Note that the target element context `AllergyIntolerance.verificationStatus` is a modifier element, so this extension does not need to be defined as a modifier.
-Element `AllergyIntolerance.verificationStatus` has is mapped to FHIR R4 element `AllergyIntolerance.verificationStatus`, but has no comparisons.</t>
+Element `AllergyIntolerance.verificationStatus` is mapped to FHIR R4 element `AllergyIntolerance.verificationStatus` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>AllergyIntolerance.verificationStatus.coding</t>
@@ -724,14 +724,14 @@
     <t>type</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AllergyIntolerance.type}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AllergyIntolerance.type|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
     <t>Cross-version extension for AllergyIntolerance.type from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `AllergyIntolerance.type` has is mapped to FHIR R4 element `AllergyIntolerance.type`, but has no comparisons.</t>
+    <t>Element `AllergyIntolerance.type` is mapped to FHIR R4 element `AllergyIntolerance.type` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>AllergyIntolerance.type.value</t>
@@ -1044,20 +1044,10 @@
     <t>AllergyIntolerance.reaction.extension</t>
   </si>
   <si>
-    <t>AllergyIntolerance.reaction.extension:reaction</t>
-  </si>
-  <si>
-    <t>reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AllergyIntolerance.reaction}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for AllergyIntolerance.reaction from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `AllergyIntolerance.reaction` has is mapped to FHIR R4 element `AllergyIntolerance.reaction`, but has no comparisons.</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>AllergyIntolerance.reaction.modifierExtension</t>
@@ -1121,6 +1111,34 @@
   </si>
   <si>
     <t>AL1-5</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.reaction.manifestation.id</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.reaction.manifestation.extension</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.reaction.manifestation.extension:manifestation</t>
+  </si>
+  <si>
+    <t>manifestation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AllergyIntolerance.reaction.manifestation|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for AllergyIntolerance.reaction.manifestation from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `AllergyIntolerance.reaction.manifestation` is mapped to FHIR R4 element `AllergyIntolerance.reaction.manifestation` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.reaction.manifestation.coding</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.reaction.manifestation.text</t>
   </si>
   <si>
     <t>AllergyIntolerance.reaction.description</t>
@@ -1509,7 +1527,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM47"/>
+  <dimension ref="A1:AM51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1518,8 +1536,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.00390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.45703125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.4296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="42.73828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.94921875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
@@ -1528,7 +1546,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="82.890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="101.58203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -5664,7 +5682,7 @@
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -5686,12 +5704,14 @@
         <v>132</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>133</v>
+        <v>324</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>79</v>
@@ -5728,14 +5748,16 @@
         <v>79</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC38" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>187</v>
@@ -5753,7 +5775,7 @@
         <v>138</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>79</v>
@@ -5764,16 +5786,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>79</v>
+        <v>327</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -5786,24 +5806,26 @@
         <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>326</v>
+        <v>132</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>79</v>
       </c>
@@ -5851,7 +5873,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>187</v>
+        <v>330</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -5860,13 +5882,13 @@
         <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>79</v>
@@ -5877,46 +5899,44 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>330</v>
+        <v>79</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>79</v>
       </c>
@@ -5940,13 +5960,13 @@
         <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>79</v>
+        <v>335</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>79</v>
+        <v>336</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>79</v>
@@ -5964,22 +5984,22 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>130</v>
+        <v>337</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>79</v>
@@ -5990,21 +6010,21 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>79</v>
+        <v>339</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
@@ -6019,13 +6039,13 @@
         <v>163</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6054,34 +6074,34 @@
         <v>257</v>
       </c>
       <c r="Y41" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF41" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="Z41" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>334</v>
-      </c>
       <c r="AG41" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>79</v>
@@ -6090,33 +6110,33 @@
         <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>340</v>
+        <v>218</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>79</v>
+        <v>345</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>342</v>
+        <v>79</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G42" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G42" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="H42" t="s" s="2">
         <v>79</v>
       </c>
@@ -6127,17 +6147,15 @@
         <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>343</v>
+        <v>181</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>79</v>
@@ -6162,13 +6180,13 @@
         <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>257</v>
+        <v>79</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>346</v>
+        <v>79</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>347</v>
+        <v>79</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>79</v>
@@ -6186,47 +6204,47 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>341</v>
+        <v>183</v>
       </c>
       <c r="AG42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH42" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="AH42" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AI42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>348</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>350</v>
+        <v>79</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
@@ -6238,17 +6256,15 @@
         <v>79</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>180</v>
+        <v>132</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>351</v>
+        <v>133</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>79</v>
@@ -6285,34 +6301,34 @@
         <v>79</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>349</v>
+        <v>187</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>354</v>
+        <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>79</v>
@@ -6323,21 +6339,23 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="C44" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="D44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
@@ -6349,15 +6367,17 @@
         <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>284</v>
+        <v>350</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>79</v>
@@ -6406,36 +6426,36 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>355</v>
+        <v>187</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>281</v>
+        <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>358</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6446,7 +6466,7 @@
         <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
@@ -6455,21 +6475,23 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>107</v>
+        <v>195</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>360</v>
+        <v>196</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>361</v>
+        <v>197</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>79</v>
       </c>
@@ -6493,13 +6515,13 @@
         <v>79</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>363</v>
+        <v>79</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>364</v>
+        <v>79</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>79</v>
@@ -6517,13 +6539,13 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>359</v>
+        <v>200</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>79</v>
@@ -6532,21 +6554,21 @@
         <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>249</v>
+        <v>201</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>79</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6566,21 +6588,23 @@
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>366</v>
+        <v>204</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>367</v>
+        <v>205</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>79</v>
       </c>
@@ -6604,13 +6628,13 @@
         <v>79</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>257</v>
+        <v>79</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>369</v>
+        <v>79</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>370</v>
+        <v>79</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>79</v>
@@ -6628,7 +6652,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>365</v>
+        <v>208</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6643,32 +6667,32 @@
         <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>371</v>
+        <v>209</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>79</v>
+        <v>210</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>79</v>
+        <v>356</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
@@ -6680,16 +6704,16 @@
         <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>312</v>
+        <v>180</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6739,13 +6763,13 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>79</v>
@@ -6754,12 +6778,454 @@
         <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="O49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="O50" s="2"/>
+      <c r="P50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK51" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AL47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AL51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>79</v>
       </c>
     </row>
